--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dd\Desktop\技能设计\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139D14D-5072-4212-AB3E-610866221714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B805090-3958-47BE-BC41-05241348ECF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="161">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,32 +156,6 @@
   <si>
     <t>主目标
 范围类型修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1-圆形
-2-矩形
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-扇形</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-选定空间
-2-选定自身
-3-友军单体
-4-敌军单体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,18 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arry&lt;a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arry&lt;b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arry&lt;c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标范围宽
 修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,12 +555,257 @@
     <t>map[string]number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>翻译ID
+从字典表
+索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升200防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%+200防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkPercent:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armot:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-eff目标
+1-圆形
+2-矩形
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-扇形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-自身周围
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-选定空间
+(弃用)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2-友军单体
+3-敌军单体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能
+发起类型</t>
+  </si>
+  <si>
+    <t>0-默认
+1-以自身
+2-以目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLaunch</t>
+  </si>
+  <si>
+    <t>发起类型</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>提升攻击(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低防御(小)</t>
+  </si>
+  <si>
+    <t>降低10%防御</t>
+  </si>
+  <si>
+    <t>降低防御(中)</t>
+  </si>
+  <si>
+    <t>降低200防御</t>
+  </si>
+  <si>
+    <t>降低防御(大)</t>
+  </si>
+  <si>
+    <t>降低10%+200防御</t>
+  </si>
+  <si>
+    <t>atkPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armot:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%攻击</t>
+  </si>
+  <si>
+    <t>提升200攻击</t>
+  </si>
+  <si>
+    <t>提升10%+200攻击</t>
+  </si>
+  <si>
+    <t>降低10%攻击</t>
+  </si>
+  <si>
+    <t>降低200攻击</t>
+  </si>
+  <si>
+    <t>降低10%+200攻击</t>
+  </si>
+  <si>
+    <t>提升50%攻击,50%防御</t>
+  </si>
+  <si>
+    <t>armorPercent:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +869,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +900,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
@@ -814,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,21 +1115,28 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -960,7 +1188,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1094,7 +1324,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1415,6 +1647,40 @@
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1594,43 +1860,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AJ17" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="C1:AJ17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性1" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{8F59CCD7-9F6E-4D8A-8F58-A1A47731A3C1}" name="属性2" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{CC4A5AF1-1FFB-453E-BE89-B38AB54DE267}" name="属性3" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AL21" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="C1:AL21" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="33"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="30"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="28"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="25"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性1" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{8F59CCD7-9F6E-4D8A-8F58-A1A47731A3C1}" name="属性2" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{CC4A5AF1-1FFB-453E-BE89-B38AB54DE267}" name="属性3" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
+    <tableColumn id="36" xr3:uid="{11D52F59-3CA3-4583-8901-95EE27D4FCAD}" name="技能_x000a_发起类型" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1899,31 +2167,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="10.625" style="2"/>
-    <col min="22" max="22" width="10.625" style="11"/>
-    <col min="23" max="26" width="10.625" style="2"/>
-    <col min="27" max="29" width="20" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="10.625" style="2"/>
-    <col min="32" max="33" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="10.625" style="2"/>
-    <col min="40" max="40" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.625" style="2"/>
+    <col min="1" max="22" width="10.625" style="2"/>
+    <col min="23" max="23" width="10.625" style="11"/>
+    <col min="24" max="27" width="10.625" style="2"/>
+    <col min="28" max="30" width="20" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="33" width="10.625" style="2"/>
+    <col min="34" max="35" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10.625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15.625" style="2" customWidth="1"/>
+    <col min="40" max="41" width="10.625" style="2"/>
+    <col min="42" max="42" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,180 +2203,192 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="O1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="AA2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,102 +2396,108 @@
         <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="F3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="AF3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AG3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AI3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>51</v>
+      <c r="AJ3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2215,49 +2505,51 @@
         <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="O4" s="19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
@@ -2265,52 +2557,56 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
-      <c r="AA4" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA4" s="14"/>
       <c r="AB4" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="15"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="19"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -2320,7 +2616,7 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="16"/>
+      <c r="AA5" s="14"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
@@ -2328,10 +2624,12 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="15"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="15"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2339,75 +2637,81 @@
         <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="19"/>
       <c r="I6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>30</v>
+      <c r="N6" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="R6" s="14"/>
       <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="16" t="s">
-        <v>112</v>
+        <v>155</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="AE6" s="16" t="s">
         <v>15</v>
@@ -2416,138 +2720,1199 @@
         <v>15</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="AH6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="15"/>
+      <c r="AI6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="15"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="H7" s="4"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C7" s="4">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="28"/>
       <c r="I7" s="4"/>
-      <c r="V7" s="2"/>
-      <c r="AJ7" s="5"/>
+      <c r="J7" s="4">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="H8" s="4"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C8" s="4">
+        <v>10002</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="28"/>
       <c r="I8" s="4"/>
-      <c r="V8" s="2"/>
-      <c r="AJ8" s="5"/>
+      <c r="J8" s="4">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="H9" s="4"/>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>10003</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="28"/>
       <c r="I9" s="4"/>
-      <c r="V9" s="2"/>
-      <c r="AJ9" s="5"/>
+      <c r="J9" s="4">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="H10" s="4"/>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>20001</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="28"/>
       <c r="I10" s="4"/>
-      <c r="V10" s="2"/>
-      <c r="AJ10" s="5"/>
+      <c r="J10" s="4">
+        <v>60</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="H11" s="4"/>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C11" s="4">
+        <v>20002</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="I11" s="4"/>
-      <c r="V11" s="2"/>
-      <c r="AJ11" s="5"/>
+      <c r="J11" s="4">
+        <v>60</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="H12" s="4"/>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <v>20003</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="I12" s="4"/>
-      <c r="V12" s="2"/>
-      <c r="AJ12" s="5"/>
+      <c r="J12" s="4">
+        <v>60</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="H13" s="4"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>11001</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="V13" s="2"/>
-      <c r="AJ13" s="5"/>
+      <c r="J13" s="4">
+        <v>60</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="H14" s="4"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>11002</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="V14" s="2"/>
-      <c r="AJ14" s="5"/>
+      <c r="J14" s="4">
+        <v>60</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="5"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="H15" s="4"/>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>11003</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="V15" s="2"/>
-      <c r="AJ15" s="5"/>
+      <c r="J15" s="4">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="5"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="H16" s="4"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>21001</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="V16" s="2"/>
-      <c r="AJ16" s="5"/>
+      <c r="J16" s="4">
+        <v>60</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="5"/>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+    <row r="17" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C17" s="10">
+        <v>21002</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="J17" s="10">
+        <v>60</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <v>2</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="12"/>
+      <c r="R17" s="11">
+        <v>3</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="12"/>
+    </row>
+    <row r="18" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>21003</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>60</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>30001</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>60</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="W20" s="2"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="12"/>
+    </row>
+    <row r="22" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="C24" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B805090-3958-47BE-BC41-05241348ECF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237190F-313B-4499-92B6-AB49A5B5109B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +377,6 @@
   </si>
   <si>
     <t>lifeTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2174,7 +2170,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2212,43 +2208,43 @@
         <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>62</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>6</v>
@@ -2278,13 +2274,13 @@
         <v>12</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AE1" s="8" t="s">
         <v>21</v>
@@ -2293,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>19</v>
@@ -2317,65 +2313,65 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="O2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="W2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="AG2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>22</v>
@@ -2402,23 +2398,23 @@
         <v>58</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>66</v>
@@ -2427,10 +2423,10 @@
         <v>63</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>27</v>
@@ -2455,22 +2451,22 @@
         <v>34</v>
       </c>
       <c r="Y3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AA3" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="AB3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>36</v>
@@ -2479,7 +2475,7 @@
         <v>37</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH3" s="16" t="s">
         <v>38</v>
@@ -2511,37 +2507,37 @@
         <v>59</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>13</v>
@@ -2559,13 +2555,13 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="AE4" s="16" t="s">
         <v>41</v>
@@ -2574,7 +2570,7 @@
         <v>42</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH4" s="16" t="s">
         <v>43</v>
@@ -2643,23 +2639,23 @@
         <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>15</v>
@@ -2670,8 +2666,8 @@
       <c r="O6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>68</v>
+      <c r="P6" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>15</v>
@@ -2681,37 +2677,37 @@
         <v>15</v>
       </c>
       <c r="T6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>156</v>
-      </c>
       <c r="AB6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE6" s="16" t="s">
         <v>15</v>
@@ -2720,7 +2716,7 @@
         <v>15</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH6" s="16" t="s">
         <v>15</v>
@@ -2739,10 +2735,10 @@
         <v>10001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="28"/>
       <c r="I7" s="4"/>
@@ -2753,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -2792,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC7" s="2">
         <v>0</v>
@@ -2825,10 +2821,10 @@
         <v>10002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="28"/>
       <c r="I8" s="4"/>
@@ -2839,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -2878,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC8" s="2">
         <v>0</v>
@@ -2911,10 +2907,10 @@
         <v>10003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="28"/>
       <c r="I9" s="4"/>
@@ -2925,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -2964,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2997,10 +2993,10 @@
         <v>20001</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="28"/>
       <c r="I10" s="4"/>
@@ -3011,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -3050,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC10" s="2">
         <v>0</v>
@@ -3083,10 +3079,10 @@
         <v>20002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="28"/>
       <c r="I11" s="4"/>
@@ -3097,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -3136,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -3169,10 +3165,10 @@
         <v>20003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="28"/>
       <c r="I12" s="4"/>
@@ -3183,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -3222,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3255,10 +3251,10 @@
         <v>11001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="4"/>
       <c r="I13" s="4"/>
@@ -3269,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -3308,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
@@ -3341,10 +3337,10 @@
         <v>11002</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="4"/>
       <c r="I14" s="4"/>
@@ -3355,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -3394,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
@@ -3427,10 +3423,10 @@
         <v>11003</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="4"/>
       <c r="I15" s="4"/>
@@ -3441,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
@@ -3480,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3513,10 +3509,10 @@
         <v>21001</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="F16" s="4"/>
       <c r="I16" s="4"/>
@@ -3527,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -3566,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -3599,10 +3595,10 @@
         <v>21002</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
@@ -3615,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="11">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="M17" s="11">
         <v>1</v>
@@ -3657,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
@@ -3691,10 +3687,10 @@
         <v>21003</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F18" s="4"/>
       <c r="I18" s="4"/>
@@ -3705,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -3744,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -3777,10 +3773,10 @@
         <v>30001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="4"/>
       <c r="I19" s="4"/>
@@ -3788,10 +3784,10 @@
         <v>60</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -3830,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237190F-313B-4499-92B6-AB49A5B5109B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DF5E7-E193-4FD1-BB0C-2D2166CFE31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,16 @@
   <si>
     <t>arryC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_shield_start_loop</t>
+  </si>
+  <si>
+    <t>Fx_buff_shield_start_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_shield_end</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,6 +1129,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2170,7 +2192,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2741,7 +2763,12 @@
         <v>146</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J7" s="4">
         <v>60</v>
       </c>
@@ -2827,7 +2854,12 @@
         <v>147</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J8" s="4">
         <v>60</v>
       </c>
@@ -2913,7 +2945,12 @@
         <v>148</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J9" s="4">
         <v>60</v>
       </c>
@@ -2999,7 +3036,12 @@
         <v>108</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J10" s="4">
         <v>60</v>
       </c>
@@ -3085,7 +3127,12 @@
         <v>113</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J11" s="4">
         <v>60</v>
       </c>
@@ -3171,7 +3218,12 @@
         <v>114</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J12" s="4">
         <v>60</v>
       </c>
@@ -3257,7 +3309,12 @@
         <v>149</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J13" s="4">
         <v>60</v>
       </c>
@@ -3343,7 +3400,12 @@
         <v>150</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J14" s="4">
         <v>60</v>
       </c>
@@ -3429,7 +3491,12 @@
         <v>151</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J15" s="4">
         <v>60</v>
       </c>
@@ -3515,7 +3582,12 @@
         <v>136</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J16" s="4">
         <v>60</v>
       </c>
@@ -3601,9 +3673,13 @@
         <v>138</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="31" t="s">
+        <v>160</v>
+      </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="33" t="s">
+        <v>162</v>
+      </c>
       <c r="J17" s="10">
         <v>60</v>
       </c>
@@ -3693,7 +3769,12 @@
         <v>140</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J18" s="4">
         <v>60</v>
       </c>
@@ -3779,7 +3860,12 @@
         <v>152</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="J19" s="4">
         <v>60</v>
       </c>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DF5E7-E193-4FD1-BB0C-2D2166CFE31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1848D0B-2657-4EC9-8724-6A219B372368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +385,6 @@
   </si>
   <si>
     <t>效果间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,96 +718,118 @@
     <t>降低200防御</t>
   </si>
   <si>
+    <t>atkPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armot:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%攻击</t>
+  </si>
+  <si>
+    <t>提升200攻击</t>
+  </si>
+  <si>
+    <t>提升10%+200攻击</t>
+  </si>
+  <si>
+    <t>降低10%攻击</t>
+  </si>
+  <si>
+    <t>降低200攻击</t>
+  </si>
+  <si>
+    <t>降低10%+200攻击</t>
+  </si>
+  <si>
+    <t>提升50%攻击,50%防御</t>
+  </si>
+  <si>
+    <t>armorPercent:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_shield_start_loop</t>
+  </si>
+  <si>
+    <t>Fx_buff_shield_end</t>
+  </si>
+  <si>
+    <t>armorPercent:-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>降低防御(大)</t>
-  </si>
-  <si>
-    <t>降低10%+200防御</t>
-  </si>
-  <si>
-    <t>atkPercent:-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk:-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorPercent:-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armot:-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升10%攻击</t>
-  </si>
-  <si>
-    <t>提升200攻击</t>
-  </si>
-  <si>
-    <t>提升10%+200攻击</t>
-  </si>
-  <si>
-    <t>降低10%攻击</t>
-  </si>
-  <si>
-    <t>降低200攻击</t>
-  </si>
-  <si>
-    <t>降低10%+200攻击</t>
-  </si>
-  <si>
-    <t>提升50%攻击,50%防御</t>
-  </si>
-  <si>
-    <t>armorPercent:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorPercent:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_shield_start_loop</t>
-  </si>
-  <si>
-    <t>Fx_buff_shield_start_loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_shield_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低50%+200防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_start_loop</t>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_end</t>
+  </si>
+  <si>
+    <t>触发概率
+(作废)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发表演
+(作废)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffectCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +896,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1041,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1103,9 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,9 +1136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1161,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1893,9 +1931,9 @@
     <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="26"/>
     <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="25"/>
     <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="23"/>
     <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="21"/>
     <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
@@ -2188,11 +2226,11 @@
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2230,43 +2268,43 @@
         <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>6</v>
@@ -2299,10 +2337,10 @@
         <v>68</v>
       </c>
       <c r="AC1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="AE1" s="8" t="s">
         <v>21</v>
@@ -2311,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>19</v>
@@ -2335,65 +2373,65 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="W2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="AG2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>22</v>
@@ -2420,23 +2458,23 @@
         <v>58</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>66</v>
@@ -2445,10 +2483,10 @@
         <v>63</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>27</v>
@@ -2473,22 +2511,22 @@
         <v>34</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>36</v>
@@ -2497,7 +2535,7 @@
         <v>37</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH3" s="16" t="s">
         <v>38</v>
@@ -2529,37 +2567,37 @@
         <v>59</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>86</v>
+      <c r="K4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>13</v>
@@ -2577,13 +2615,13 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD4" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="AE4" s="16" t="s">
         <v>41</v>
@@ -2592,7 +2630,7 @@
         <v>42</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH4" s="16" t="s">
         <v>43</v>
@@ -2623,7 +2661,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -2661,23 +2699,23 @@
         <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>15</v>
@@ -2688,8 +2726,8 @@
       <c r="O6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>154</v>
+      <c r="P6" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>15</v>
@@ -2699,37 +2737,37 @@
         <v>15</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE6" s="16" t="s">
         <v>15</v>
@@ -2738,7 +2776,7 @@
         <v>15</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH6" s="16" t="s">
         <v>15</v>
@@ -2757,17 +2795,17 @@
         <v>10001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="28" t="s">
         <v>162</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="J7" s="4">
         <v>60</v>
@@ -2815,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC7" s="2">
         <v>0</v>
@@ -2848,18 +2886,16 @@
         <v>10002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>162</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="4">
         <v>60</v>
       </c>
@@ -2906,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC8" s="2">
         <v>0</v>
@@ -2939,18 +2975,16 @@
         <v>10003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>162</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="4">
         <v>60</v>
       </c>
@@ -2997,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -3030,17 +3064,17 @@
         <v>20001</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>162</v>
+        <v>128</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="J10" s="4">
         <v>60</v>
@@ -3088,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC10" s="2">
         <v>0</v>
@@ -3121,17 +3155,17 @@
         <v>20002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>162</v>
+        <v>129</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="J11" s="4">
         <v>60</v>
@@ -3179,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -3212,17 +3246,17 @@
         <v>20003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="J12" s="4">
         <v>60</v>
@@ -3270,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3303,18 +3337,16 @@
         <v>11001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>149</v>
+        <v>131</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G13" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="4">
         <v>60</v>
       </c>
@@ -3361,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
@@ -3394,18 +3426,16 @@
         <v>11002</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G14" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="4">
         <v>60</v>
       </c>
@@ -3452,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
@@ -3485,18 +3515,16 @@
         <v>11003</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G15" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="30"/>
       <c r="J15" s="4">
         <v>60</v>
       </c>
@@ -3543,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3576,18 +3604,16 @@
         <v>21001</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G16" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="4">
         <v>60</v>
       </c>
@@ -3634,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -3667,19 +3693,17 @@
         <v>21002</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="31" t="s">
-        <v>160</v>
+      <c r="G17" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="33" t="s">
-        <v>162</v>
-      </c>
+      <c r="I17" s="31"/>
       <c r="J17" s="10">
         <v>60</v>
       </c>
@@ -3729,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
@@ -3763,18 +3787,16 @@
         <v>21003</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G18" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="30"/>
       <c r="J18" s="4">
         <v>60</v>
       </c>
@@ -3821,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -3854,18 +3876,16 @@
         <v>30001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="G19" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="30"/>
       <c r="J19" s="4">
         <v>60</v>
       </c>
@@ -3912,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC19" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -3988,20 +4008,21 @@
       <c r="AL21" s="12"/>
     </row>
     <row r="22" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C22" s="27"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C23" s="27"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C24" s="27"/>
+      <c r="C24" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1848D0B-2657-4EC9-8724-6A219B372368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E839467-8AA3-4A98-A8D1-83F55AFFF8F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,13 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-护盾
-2-控制
-3-HOT
-4-DOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挂载位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,33 +507,10 @@
   </si>
   <si>
     <t>格式-type:value</t>
-  </si>
-  <si>
-    <t>格式-type:value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attributeNumValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributeNumValue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributeNumValue3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>armorPercent:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arryA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,6 +788,68 @@
   </si>
   <si>
     <t>buffEffectCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkPercent:0.1,atk:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-护盾
+201-眩晕
+401-HOT
+501-DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>HOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者攻击150%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者攻击150%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者防御300%+500点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者生命上限10%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者防御300%+500回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者生命上限10%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据目标生命上限30%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消目标生命上限30%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据常规伤害200%+200造成伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,9 +1169,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1180,12 +1205,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1193,44 +1221,6 @@
           <color theme="0"/>
         </left>
         <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1916,37 +1906,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AL21" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="C1:AL21" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="33"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="28"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="27"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="25"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性1" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{8F59CCD7-9F6E-4D8A-8F58-A1A47731A3C1}" name="属性2" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{CC4A5AF1-1FFB-453E-BE89-B38AB54DE267}" name="属性3" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AJ29" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="C1:AJ29" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="31"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="29"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="27"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="26"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="25"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="24"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="9"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性1" dataDxfId="8"/>
     <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
     <tableColumn id="36" xr3:uid="{11D52F59-3CA3-4583-8901-95EE27D4FCAD}" name="技能_x000a_发起类型" dataDxfId="5"/>
@@ -2223,14 +2211,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2238,20 +2226,20 @@
     <col min="1" max="22" width="10.625" style="2"/>
     <col min="23" max="23" width="10.625" style="11"/>
     <col min="24" max="27" width="10.625" style="2"/>
-    <col min="28" max="30" width="20" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="33" width="10.625" style="2"/>
-    <col min="34" max="35" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="10.625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="15.625" style="2" customWidth="1"/>
-    <col min="40" max="41" width="10.625" style="2"/>
-    <col min="42" max="42" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.625" style="2"/>
+    <col min="28" max="28" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="2" customWidth="1"/>
+    <col min="30" max="31" width="10.625" style="2"/>
+    <col min="32" max="33" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="15.625" style="2" customWidth="1"/>
+    <col min="38" max="39" width="10.625" style="2"/>
+    <col min="40" max="40" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2262,49 +2250,49 @@
         <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>6</v>
@@ -2334,117 +2322,105 @@
         <v>12</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="O2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="W2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="5"/>
+      <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2452,41 +2428,41 @@
         <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>166</v>
+      <c r="P3" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>27</v>
@@ -2511,49 +2487,43 @@
         <v>34</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AI3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2561,43 +2531,43 @@
         <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>13</v>
@@ -2615,38 +2585,32 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="16" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="15"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2661,7 +2625,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="36"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -2680,12 +2644,10 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="15"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2693,41 +2655,41 @@
         <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>151</v>
+      <c r="P6" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>15</v>
@@ -2737,75 +2699,69 @@
         <v>15</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="AF6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="15"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>10001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>163</v>
+        <v>118</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="J7" s="4">
         <v>60</v>
@@ -2853,49 +2809,43 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7" s="2">
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
         <v>3</v>
       </c>
-      <c r="AL7" s="5"/>
+      <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>10002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="29"/>
       <c r="J8" s="4">
         <v>60</v>
       </c>
@@ -2942,49 +2892,43 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
       </c>
       <c r="AE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="2">
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
         <v>3</v>
       </c>
-      <c r="AL8" s="5"/>
+      <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>10003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="29"/>
       <c r="J9" s="4">
         <v>60</v>
       </c>
@@ -3031,50 +2975,44 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
       </c>
       <c r="AE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG9" s="2">
         <v>0</v>
       </c>
       <c r="AH9" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
         <v>3</v>
       </c>
-      <c r="AL9" s="5"/>
+      <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>20001</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="J10" s="4">
         <v>60</v>
@@ -3122,50 +3060,44 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
       </c>
       <c r="AE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG10" s="2">
         <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2">
         <v>3</v>
       </c>
-      <c r="AL10" s="5"/>
+      <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>20002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="J11" s="4">
         <v>60</v>
@@ -3213,50 +3145,44 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
       </c>
       <c r="AE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG11" s="2">
         <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
         <v>3</v>
       </c>
-      <c r="AL11" s="5"/>
+      <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>20003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="J12" s="4">
         <v>60</v>
@@ -3304,49 +3230,43 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG12" s="2">
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
         <v>3</v>
       </c>
-      <c r="AL12" s="5"/>
+      <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>11001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>146</v>
+        <v>124</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="30"/>
+      <c r="G13" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="29"/>
       <c r="J13" s="4">
         <v>60</v>
       </c>
@@ -3393,49 +3313,43 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="2">
         <v>0</v>
       </c>
       <c r="AH13" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
         <v>5</v>
       </c>
-      <c r="AL13" s="5"/>
+      <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>11002</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>147</v>
+        <v>126</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="30"/>
+      <c r="G14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="29"/>
       <c r="J14" s="4">
         <v>60</v>
       </c>
@@ -3482,49 +3396,43 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
       </c>
       <c r="AE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG14" s="2">
         <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
         <v>5</v>
       </c>
-      <c r="AL14" s="5"/>
+      <c r="AJ14" s="5"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>11003</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="30"/>
+      <c r="G15" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="29"/>
       <c r="J15" s="4">
         <v>60</v>
       </c>
@@ -3571,49 +3479,43 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
       </c>
       <c r="AE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG15" s="2">
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
         <v>5</v>
       </c>
-      <c r="AL15" s="5"/>
+      <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>21001</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="30"/>
+      <c r="G16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="29"/>
       <c r="J16" s="4">
         <v>60</v>
       </c>
@@ -3660,50 +3562,44 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
       </c>
       <c r="AE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG16" s="2">
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
         <v>5</v>
       </c>
-      <c r="AL16" s="5"/>
+      <c r="AJ16" s="5"/>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C17" s="10">
         <v>21002</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="29" t="s">
-        <v>157</v>
+      <c r="G17" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="10">
         <v>60</v>
       </c>
@@ -3753,50 +3649,44 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AC17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="11">
         <v>0</v>
       </c>
       <c r="AE17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="11">
         <v>0</v>
       </c>
       <c r="AH17" s="11">
-        <v>20</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11">
         <v>5</v>
       </c>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="12"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="12"/>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>21003</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="30"/>
+      <c r="G18" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="29"/>
       <c r="J18" s="4">
         <v>60</v>
       </c>
@@ -3843,49 +3733,43 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
       </c>
       <c r="AE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG18" s="2">
         <v>0</v>
       </c>
       <c r="AH18" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
         <v>5</v>
       </c>
-      <c r="AL18" s="5"/>
+      <c r="AJ18" s="5"/>
     </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>30001</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="4">
         <v>60</v>
       </c>
@@ -3932,89 +3816,836 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>101001</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="AC19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2">
+      <c r="J20" s="4">
+        <v>60</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>201</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>101</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U20" s="2">
+        <v>200</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
         <v>3</v>
       </c>
-      <c r="AL19" s="5"/>
+      <c r="AJ20" s="5"/>
     </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="W20" s="2"/>
-      <c r="AL20" s="5"/>
-    </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>101002</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>166</v>
+      </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="G21" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="4">
+        <v>60</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>202</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
+      <c r="R21" s="11">
+        <v>1</v>
+      </c>
+      <c r="S21" s="11">
+        <v>102</v>
+      </c>
+      <c r="T21" s="11">
+        <v>3</v>
+      </c>
+      <c r="U21" s="11">
+        <v>500</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>3</v>
+      </c>
       <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="12"/>
+      <c r="AJ21" s="12"/>
     </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C22" s="25"/>
+    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>101003</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="4">
+        <v>60</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>203</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>103</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>200</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="5"/>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C23" s="25"/>
+    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C23" s="4">
+        <v>101004</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="4">
+        <v>60</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>204</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>104</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U23" s="2">
+        <v>200</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ23" s="5"/>
     </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C24" s="25"/>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>104001</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="4">
+        <v>60</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>401</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>401</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1010</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>104002</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>60</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>401</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>401</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1013</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>104003</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>60</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>401</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>3</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>401</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1011</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>104004</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <v>60</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>401</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>3</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>401</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1012</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>106001</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>601</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>3</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>601</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1005</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E839467-8AA3-4A98-A8D1-83F55AFFF8F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05213B10-874E-4745-96FA-F730C8CA7AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,15 +385,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>startplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>continueplay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,11 +404,6 @@
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每X毫秒
-触发一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,9 +575,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能
+发起类型</t>
+  </si>
+  <si>
+    <t>0-默认
+1-以自身
+2-以目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLaunch</t>
+  </si>
+  <si>
+    <t>发起类型</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>提升攻击(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻击(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低防御(小)</t>
+  </si>
+  <si>
+    <t>降低10%防御</t>
+  </si>
+  <si>
+    <t>降低防御(中)</t>
+  </si>
+  <si>
+    <t>降低200防御</t>
+  </si>
+  <si>
+    <t>atkPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armot:-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%攻击</t>
+  </si>
+  <si>
+    <t>提升200攻击</t>
+  </si>
+  <si>
+    <t>提升10%+200攻击</t>
+  </si>
+  <si>
+    <t>降低10%攻击</t>
+  </si>
+  <si>
+    <t>降低200攻击</t>
+  </si>
+  <si>
+    <t>降低10%+200攻击</t>
+  </si>
+  <si>
+    <t>提升50%攻击,50%防御</t>
+  </si>
+  <si>
+    <t>armorPercent:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_shield_start_loop</t>
+  </si>
+  <si>
+    <t>Fx_buff_shield_end</t>
+  </si>
+  <si>
+    <t>armorPercent:-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低防御(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低50%+200防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_start_loop</t>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_end</t>
+  </si>
+  <si>
+    <t>触发概率
+(作废)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发表演
+(作废)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffectCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkPercent:0.1,atk:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-护盾
+201-眩晕
+401-HOT
+501-DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>HOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者攻击150%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者攻击150%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者防御300%+500点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者生命上限10%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者防御300%+500回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者生命上限10%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据目标生命上限30%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消目标生命上限30%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据常规伤害200%+200造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">0-自身周围
-</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-默认
+1-自身周围</t>
     </r>
     <r>
       <rPr>
@@ -602,8 +830,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1-选定空间
-(弃用)</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -614,242 +842,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-2-友军单体
-3-敌军单体</t>
+      <t>2-友军单体
+3-敌军单体
+4-</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能
-发起类型</t>
-  </si>
-  <si>
-    <t>0-默认
-1-以自身
-2-以目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLaunch</t>
-  </si>
-  <si>
-    <t>发起类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>提升攻击(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升攻击(中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升攻击(大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升防御(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升防御(中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升防御(大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低攻击(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低攻击(大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低攻击(中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低防御(小)</t>
-  </si>
-  <si>
-    <t>降低10%防御</t>
-  </si>
-  <si>
-    <t>降低防御(中)</t>
-  </si>
-  <si>
-    <t>降低200防御</t>
-  </si>
-  <si>
-    <t>atkPercent:-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk:-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorPercent:-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armot:-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升10%攻击</t>
-  </si>
-  <si>
-    <t>提升200攻击</t>
-  </si>
-  <si>
-    <t>提升10%+200攻击</t>
-  </si>
-  <si>
-    <t>降低10%攻击</t>
-  </si>
-  <si>
-    <t>降低200攻击</t>
-  </si>
-  <si>
-    <t>降低10%+200攻击</t>
-  </si>
-  <si>
-    <t>提升50%攻击,50%防御</t>
-  </si>
-  <si>
-    <t>armorPercent:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_shield_start_loop</t>
-  </si>
-  <si>
-    <t>Fx_buff_shield_end</t>
-  </si>
-  <si>
-    <t>armorPercent:-0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低防御(大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低50%+200防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_guanghuan_start_loop</t>
-  </si>
-  <si>
-    <t>Fx_buff_guanghuan_end</t>
-  </si>
-  <si>
-    <t>触发概率
-(作废)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发表演
-(作废)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffEffectCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkPercent:0.1,atk:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-护盾
-201-眩晕
-401-HOT
-501-DOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>HOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者攻击150%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者攻击150%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者防御300%+500点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者生命上限10%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者防御300%+500回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者生命上限10%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据目标生命上限30%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消目标生命上限30%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据常规伤害200%+200造成伤害</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">选定空间
+(弃用)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-仅自身</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loopFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每X秒
+触发一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +967,24 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2214,11 +2267,11 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2228,7 +2281,8 @@
     <col min="24" max="27" width="10.625" style="2"/>
     <col min="28" max="28" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.625" style="2" customWidth="1"/>
-    <col min="30" max="31" width="10.625" style="2"/>
+    <col min="30" max="30" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.625" style="2"/>
     <col min="32" max="33" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="10.625" style="2" customWidth="1"/>
@@ -2256,43 +2310,43 @@
         <v>56</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>50</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="M1" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>61</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>68</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>6</v>
@@ -2331,7 +2385,7 @@
         <v>18</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>19</v>
@@ -2349,65 +2403,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD2" s="26" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>22</v>
@@ -2434,23 +2488,23 @@
         <v>57</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="13" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>66</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>65</v>
@@ -2459,10 +2513,10 @@
         <v>62</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>27</v>
@@ -2487,16 +2541,16 @@
         <v>34</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC3" s="16" t="s">
         <v>36</v>
@@ -2505,7 +2559,7 @@
         <v>37</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>38</v>
@@ -2537,28 +2591,28 @@
         <v>58</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>63</v>
@@ -2567,7 +2621,7 @@
         <v>69</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>13</v>
@@ -2594,7 +2648,7 @@
         <v>42</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AF4" s="16" t="s">
         <v>43</v>
@@ -2661,23 +2715,23 @@
         <v>55</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>15</v>
@@ -2689,7 +2743,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>15</v>
@@ -2699,31 +2753,31 @@
         <v>15</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="16" t="s">
         <v>15</v>
@@ -2732,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AF6" s="16" t="s">
         <v>15</v>
@@ -2751,17 +2805,17 @@
         <v>10001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J7" s="4">
         <v>60</v>
@@ -2809,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
@@ -2836,14 +2890,14 @@
         <v>10002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="4">
@@ -2892,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AC8" s="2">
         <v>1</v>
@@ -2919,14 +2973,14 @@
         <v>10003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="4">
@@ -2975,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -3002,17 +3056,17 @@
         <v>20001</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J10" s="4">
         <v>60</v>
@@ -3060,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC10" s="2">
         <v>1</v>
@@ -3087,17 +3141,17 @@
         <v>20002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J11" s="4">
         <v>60</v>
@@ -3145,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="2">
         <v>1</v>
@@ -3172,17 +3226,17 @@
         <v>20003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J12" s="4">
         <v>60</v>
@@ -3230,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="2">
         <v>1</v>
@@ -3257,14 +3311,14 @@
         <v>11001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="4">
@@ -3313,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AC13" s="2">
         <v>1</v>
@@ -3340,14 +3394,14 @@
         <v>11002</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="4">
@@ -3396,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC14" s="2">
         <v>1</v>
@@ -3423,14 +3477,14 @@
         <v>11003</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="4">
@@ -3479,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AC15" s="2">
         <v>1</v>
@@ -3506,14 +3560,14 @@
         <v>21001</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="4">
@@ -3562,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -3589,14 +3643,14 @@
         <v>21002</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="30"/>
@@ -3649,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AC17" s="11">
         <v>1</v>
@@ -3677,14 +3731,14 @@
         <v>21003</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="4">
@@ -3733,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AC18" s="2">
         <v>1</v>
@@ -3760,14 +3814,14 @@
         <v>30001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="4">
@@ -3816,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -3843,17 +3897,17 @@
         <v>101001</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J20" s="4">
         <v>60</v>
@@ -3928,17 +3982,17 @@
         <v>101002</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J21" s="4">
         <v>60</v>
@@ -4017,17 +4071,17 @@
         <v>101003</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J22" s="4">
         <v>60</v>
@@ -4102,17 +4156,17 @@
         <v>101004</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J23" s="4">
         <v>60</v>
@@ -4187,14 +4241,14 @@
         <v>104001</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4">
@@ -4273,14 +4327,14 @@
         <v>104002</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4">
@@ -4359,14 +4413,14 @@
         <v>104003</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4">
@@ -4445,14 +4499,14 @@
         <v>104004</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -4531,14 +4585,14 @@
         <v>106001</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4">

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05213B10-874E-4745-96FA-F730C8CA7AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2011323-BA11-40A5-9CEE-6F7C36C041F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,18 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数组1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触发概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,70 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主目标
-修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标范围长
-修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主目标
-范围类型修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标点到目标范围边界的距离(米)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">圆形-0
-矩形-宽度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扇形-角度
-中心线左右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-单位米</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用对象
-修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,71 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标范围宽
-修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rangeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetWide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +230,6 @@
   </si>
   <si>
     <t>lifeTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attributeNumValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map[string]number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,42 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0-eff目标
-1-圆形
-2-矩形
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-扇形</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能
-发起类型</t>
-  </si>
-  <si>
-    <t>0-默认
-1-以自身
-2-以目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLaunch</t>
-  </si>
-  <si>
-    <t>发起类型</t>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
@@ -688,22 +504,6 @@
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -750,141 +550,129 @@
   </si>
   <si>
     <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>HOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者攻击150%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者攻击150%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者防御300%+500点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消施法者生命上限10%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者防御300%+500回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者生命上限10%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据目标生命上限30%+200回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消目标生命上限30%+200点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据常规伤害200%+200造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loopFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每X秒
+触发一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>101-护盾
 201-眩晕
 401-HOT
-501-DOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>HOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者攻击150%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者攻击150%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者防御300%+500点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者生命上限10%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者防御300%+500回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者生命上限10%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据目标生命上限30%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消目标生命上限30%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据常规伤害200%+200造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-默认
-1-自身周围</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-友军单体
-3-敌军单体
-4-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">选定空间
-(弃用)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5-仅自身</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endFx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loopFx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每X秒
-触发一次</t>
+501-DOT
+601-属性光环
+602-吸血光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributeNumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterA</t>
+  </si>
+  <si>
+    <t>parameterB</t>
+  </si>
+  <si>
+    <t>parameterC</t>
+  </si>
+  <si>
+    <t>parameterD</t>
+  </si>
+  <si>
+    <t>parameterE</t>
+  </si>
+  <si>
+    <t>parameterString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串参数</t>
+  </si>
+  <si>
+    <t>字符串参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,51 +746,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1013,12 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
@@ -1144,20 +894,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,16 +933,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,7 +951,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1213,20 +960,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1246,16 +990,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1266,14 +1010,16 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1290,142 +1036,7 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1959,43 +1570,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AJ29" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="C1:AJ29" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="31"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="26"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性1" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{11D52F59-3CA3-4583-8901-95EE27D4FCAD}" name="技能_x000a_发起类型" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC35" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="19"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="18"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="17"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="15"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="11"/>
+    <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="10"/>
+    <tableColumn id="44" xr3:uid="{5109FD34-F9DF-4251-BB1D-18FE0F212000}" name="Iint类型参数" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2264,560 +1868,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="22" width="10.625" style="2"/>
-    <col min="23" max="23" width="10.625" style="11"/>
-    <col min="24" max="27" width="10.625" style="2"/>
-    <col min="28" max="28" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.625" style="2"/>
-    <col min="32" max="33" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="24" width="10.625" style="2"/>
+    <col min="25" max="25" width="10.625" style="10"/>
+    <col min="26" max="26" width="10.625" style="2"/>
+    <col min="27" max="27" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15.625" style="2" customWidth="1"/>
+    <col min="31" max="32" width="10.625" style="2"/>
+    <col min="33" max="33" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="10.625" style="2"/>
-    <col min="40" max="40" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.625" style="2"/>
+    <col min="35" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>67</v>
+      <c r="Y1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="14" t="s">
+      <c r="M3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="X3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="Y3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AB3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>46</v>
+      <c r="Z3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
+      <c r="N4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="15"/>
+      <c r="T4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13" t="s">
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="16" t="s">
+      <c r="G6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="15"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C7" s="4">
-        <v>10001</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>60</v>
       </c>
       <c r="K7" s="2">
@@ -2859,48 +2361,27 @@
       <c r="Z7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="5"/>
+      <c r="AA7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C8" s="4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
         <v>10002</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="4">
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="3">
         <v>60</v>
       </c>
       <c r="K8" s="2">
@@ -2942,48 +2423,27 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ8" s="5"/>
+      <c r="AA8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
         <v>10003</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="4">
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="3">
         <v>60</v>
       </c>
       <c r="K9" s="2">
@@ -3025,50 +2485,29 @@
       <c r="Z9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ9" s="5"/>
+      <c r="AA9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
         <v>20001</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="3">
         <v>60</v>
       </c>
       <c r="K10" s="2">
@@ -3110,50 +2549,29 @@
       <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="5"/>
+      <c r="AA10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
         <v>20002</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="3">
         <v>60</v>
       </c>
       <c r="K11" s="2">
@@ -3195,50 +2613,29 @@
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ11" s="5"/>
+      <c r="AA11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
         <v>20003</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="3">
         <v>60</v>
       </c>
       <c r="K12" s="2">
@@ -3280,48 +2677,27 @@
       <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ12" s="5"/>
+      <c r="AA12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
         <v>11001</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="3">
         <v>60</v>
       </c>
       <c r="K13" s="2">
@@ -3363,48 +2739,27 @@
       <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="5"/>
+      <c r="AA13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C14" s="4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
         <v>11002</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="4">
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="3">
         <v>60</v>
       </c>
       <c r="K14" s="2">
@@ -3446,48 +2801,27 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="5"/>
+      <c r="AA14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
         <v>11003</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="4">
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="3">
         <v>60</v>
       </c>
       <c r="K15" s="2">
@@ -3529,48 +2863,27 @@
       <c r="Z15" s="2">
         <v>0</v>
       </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="5"/>
+      <c r="AA15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C16" s="4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
         <v>21001</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="4">
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="3">
         <v>60</v>
       </c>
       <c r="K16" s="2">
@@ -3612,136 +2925,94 @@
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="5"/>
+      <c r="AA16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C17" s="10">
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C17" s="9">
         <v>21002</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="10">
+      <c r="D17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="9">
         <v>60</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>2</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>104</v>
       </c>
-      <c r="M17" s="11">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <v>2</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11">
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="11">
-        <v>0</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
-      </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0</v>
-      </c>
-      <c r="X17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>20</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>5</v>
-      </c>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="12"/>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="11"/>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C18" s="4">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
         <v>21003</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="3">
         <v>60</v>
       </c>
       <c r="K18" s="2">
@@ -3783,48 +3054,27 @@
       <c r="Z18" s="2">
         <v>0</v>
       </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="5"/>
+      <c r="AA18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C19" s="4">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
         <v>30001</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="4">
+      <c r="D19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="3">
         <v>60</v>
       </c>
       <c r="K19" s="2">
@@ -3866,50 +3116,29 @@
       <c r="Z19" s="2">
         <v>0</v>
       </c>
-      <c r="AA19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ19" s="5"/>
+      <c r="AA19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C20" s="4">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
         <v>101001</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="D20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="3">
         <v>60</v>
       </c>
       <c r="K20" s="2">
@@ -3931,17 +3160,17 @@
         <v>101</v>
       </c>
       <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
         <v>1.5</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <v>200</v>
       </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
       <c r="X20" s="2">
         <v>0</v>
       </c>
@@ -3954,136 +3183,94 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>101002</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="3">
+        <v>60</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
+        <v>202</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
+        <v>102</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
         <v>3</v>
       </c>
-      <c r="AJ20" s="5"/>
+      <c r="W21" s="10">
+        <v>500</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="11"/>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C21" s="4">
-        <v>101002</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="4">
-        <v>60</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11">
-        <v>202</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1</v>
-      </c>
-      <c r="N21" s="11">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11">
-        <v>1</v>
-      </c>
-      <c r="S21" s="11">
-        <v>102</v>
-      </c>
-      <c r="T21" s="11">
-        <v>3</v>
-      </c>
-      <c r="U21" s="11">
-        <v>500</v>
-      </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
-        <v>0</v>
-      </c>
-      <c r="X21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C22" s="4">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
         <v>101003</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="3">
         <v>60</v>
       </c>
       <c r="K22" s="2">
@@ -4105,17 +3292,17 @@
         <v>103</v>
       </c>
       <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
         <v>0.1</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2">
         <v>200</v>
       </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
       <c r="X22" s="2">
         <v>0</v>
       </c>
@@ -4128,47 +3315,26 @@
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ22" s="5"/>
+      <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C23" s="4">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
         <v>101004</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="3">
         <v>60</v>
       </c>
       <c r="K23" s="2">
@@ -4190,17 +3356,17 @@
         <v>104</v>
       </c>
       <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
         <v>0.3</v>
       </c>
-      <c r="U23" s="2">
+      <c r="W23" s="2">
         <v>200</v>
       </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
       <c r="X23" s="2">
         <v>0</v>
       </c>
@@ -4213,45 +3379,24 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ23" s="5"/>
+      <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C24" s="4">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
         <v>104001</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="4">
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="3">
         <v>60</v>
       </c>
       <c r="K24" s="2">
@@ -4276,11 +3421,11 @@
         <v>401</v>
       </c>
       <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
         <v>1010</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
       <c r="V24" s="2">
         <v>0</v>
       </c>
@@ -4299,45 +3444,24 @@
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ24" s="5"/>
+      <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C25" s="4">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
         <v>104002</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="D25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>60</v>
       </c>
       <c r="K25" s="2">
@@ -4362,11 +3486,11 @@
         <v>401</v>
       </c>
       <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
         <v>1013</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
       <c r="V25" s="2">
         <v>0</v>
       </c>
@@ -4385,45 +3509,24 @@
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="5"/>
+      <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C26" s="4">
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
         <v>104003</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="D26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>60</v>
       </c>
       <c r="K26" s="2">
@@ -4448,11 +3551,11 @@
         <v>401</v>
       </c>
       <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <v>1011</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
       <c r="V26" s="2">
         <v>0</v>
       </c>
@@ -4471,45 +3574,24 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="5"/>
+      <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C27" s="4">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
         <v>104004</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>60</v>
       </c>
       <c r="K27" s="2">
@@ -4534,11 +3616,11 @@
         <v>401</v>
       </c>
       <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
         <v>1012</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
       <c r="V27" s="2">
         <v>0</v>
       </c>
@@ -4557,52 +3639,31 @@
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ27" s="5"/>
+      <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C28" s="4">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
         <v>106001</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="D28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>60</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
@@ -4617,14 +3678,14 @@
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <v>1005</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
@@ -4643,63 +3704,95 @@
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="5"/>
+      <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="12"/>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="Y29" s="2"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="Y30" s="2"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="Y31" s="2"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="Y32" s="2"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="Y33" s="2"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="Y34" s="2"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2011323-BA11-40A5-9CEE-6F7C36C041F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C2EE2-C46A-47A5-9262-63A0D9CD0D03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,9 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
     <t>提升攻击(小)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,65 +619,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributeNumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串参数</t>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>number
+类型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number
+类型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributeNumValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterA</t>
-  </si>
-  <si>
-    <t>parameterB</t>
-  </si>
-  <si>
-    <t>parameterC</t>
-  </si>
-  <si>
-    <t>parameterD</t>
-  </si>
-  <si>
-    <t>parameterE</t>
-  </si>
-  <si>
-    <t>parameterString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串参数</t>
-  </si>
-  <si>
-    <t>字符串参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iint类型参数</t>
-  </si>
-  <si>
-    <t>Iint类型参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串
+类型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iint类型
+类型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +770,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -898,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,12 +1036,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1037,6 +1080,25 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1570,22 +1632,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC35" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="26"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="24"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="19"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="18"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="17"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="C1:AD35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="25"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="22"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="19"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="15"/>
     <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="13"/>
     <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="12"/>
@@ -1597,6 +1659,7 @@
     <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="0"/>
     <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="3"/>
     <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
@@ -1868,31 +1931,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="10.625" style="2"/>
     <col min="25" max="25" width="10.625" style="10"/>
-    <col min="26" max="26" width="10.625" style="2"/>
-    <col min="27" max="27" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15.625" style="2" customWidth="1"/>
-    <col min="31" max="32" width="10.625" style="2"/>
-    <col min="33" max="33" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.625" style="2"/>
+    <col min="26" max="27" width="10.625" style="2"/>
+    <col min="28" max="28" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15.625" style="2" customWidth="1"/>
+    <col min="32" max="33" width="10.625" style="2"/>
+    <col min="34" max="34" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1936,13 +1999,13 @@
         <v>35</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>64</v>
@@ -1951,10 +2014,10 @@
         <v>6</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>7</v>
@@ -1971,17 +2034,20 @@
       <c r="Z1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="6" t="s">
-        <v>139</v>
+      <c r="AA1" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>19</v>
@@ -2026,21 +2092,24 @@
         <v>65</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="Y2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2057,11 +2126,11 @@
         <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>40</v>
@@ -2082,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>17</v>
@@ -2092,37 +2161,30 @@
         <v>23</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2176,23 +2238,34 @@
         <v>6</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="14"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2220,11 +2293,12 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="14"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="14"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2322,7 @@
         <v>46</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>58</v>
@@ -2266,7 +2340,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>12</v>
@@ -2276,48 +2350,41 @@
         <v>12</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="14"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="14"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>10001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="J7" s="3">
         <v>60</v>
@@ -2361,24 +2428,28 @@
       <c r="Z7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="2" t="str">
+        <f>V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>10002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="3">
@@ -2423,24 +2494,28 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="2" t="str">
+        <f t="shared" ref="AA8:AA28" si="0">V8&amp;","&amp;W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8</f>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>10003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="3">
@@ -2485,27 +2560,31 @@
       <c r="Z9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC9" s="4"/>
+      <c r="AA9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>20001</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J10" s="3">
         <v>60</v>
@@ -2549,27 +2628,31 @@
       <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>20002</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
@@ -2613,27 +2696,31 @@
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>20003</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J12" s="3">
         <v>60</v>
@@ -2677,24 +2764,28 @@
       <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>11001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="3">
@@ -2739,24 +2830,28 @@
       <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC13" s="4"/>
+      <c r="AA13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>11002</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="3">
@@ -2801,24 +2896,28 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="AA14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC14" s="4"/>
+      <c r="AA14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>11003</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="3">
@@ -2863,24 +2962,28 @@
       <c r="Z15" s="2">
         <v>0</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC15" s="4"/>
+      <c r="AA15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>21001</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="3">
@@ -2925,24 +3028,28 @@
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AA16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC16" s="4"/>
+      <c r="AA16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="9">
         <v>21002</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="28"/>
@@ -2991,25 +3098,29 @@
       <c r="Z17" s="10">
         <v>0</v>
       </c>
-      <c r="AA17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="11"/>
+      <c r="AA17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>21003</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="3">
@@ -3054,24 +3165,28 @@
       <c r="Z18" s="2">
         <v>0</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC18" s="4"/>
+      <c r="AA18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>30001</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="3">
@@ -3116,27 +3231,31 @@
       <c r="Z19" s="2">
         <v>0</v>
       </c>
-      <c r="AA19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC19" s="4"/>
+      <c r="AA19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>101001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J20" s="3">
         <v>60</v>
@@ -3180,27 +3299,31 @@
       <c r="Z20" s="2">
         <v>0</v>
       </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4"/>
+      <c r="AA20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5,200,0,0,0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>101002</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J21" s="3">
         <v>60</v>
@@ -3247,28 +3370,32 @@
       <c r="Z21" s="10">
         <v>0</v>
       </c>
-      <c r="AA21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="11"/>
+      <c r="AA21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3,500,0,0,0</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>101003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J22" s="3">
         <v>60</v>
@@ -3312,27 +3439,31 @@
       <c r="Z22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4"/>
+      <c r="AA22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.1,200,0,0,0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>101004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="J23" s="3">
         <v>60</v>
@@ -3376,24 +3507,28 @@
       <c r="Z23" s="2">
         <v>0</v>
       </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4"/>
+      <c r="AA23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.3,200,0,0,0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>104001</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="3">
@@ -3441,24 +3576,28 @@
       <c r="Z24" s="2">
         <v>0</v>
       </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4"/>
+      <c r="AA24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>104002</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
@@ -3506,24 +3645,28 @@
       <c r="Z25" s="2">
         <v>0</v>
       </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4"/>
+      <c r="AA25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4"/>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>104003</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
@@ -3571,24 +3714,28 @@
       <c r="Z26" s="2">
         <v>0</v>
       </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4"/>
+      <c r="AA26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4"/>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>104004</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
@@ -3636,24 +3783,28 @@
       <c r="Z27" s="2">
         <v>0</v>
       </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="4"/>
+      <c r="AA27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>106001</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
@@ -3701,12 +3852,16 @@
       <c r="Z28" s="2">
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="4"/>
+      <c r="AA28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4"/>
     </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3714,9 +3869,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="Y29" s="2"/>
-      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3724,9 +3879,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="Y30" s="2"/>
-      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3734,9 +3889,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="Y31" s="2"/>
-      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3744,9 +3899,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="Y32" s="2"/>
-      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
     </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3754,9 +3909,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="Y33" s="2"/>
-      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3764,9 +3919,9 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="Y34" s="2"/>
-      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3792,7 +3947,8 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="11"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C2EE2-C46A-47A5-9262-63A0D9CD0D03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6D2F7-C076-4391-BD06-5F1CBC65814E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="162">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +117,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,14 +138,6 @@
   <si>
     <t>效果基础触发概率
 分母10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,6 +681,49 @@
   </si>
   <si>
     <t>参数7</t>
+  </si>
+  <si>
+    <t>buff的
+触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指buff效果
+在哪些条件情况下生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerId</t>
+  </si>
+  <si>
+    <t>triggerRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+条件关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+条件关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器条件关系
+0-且
+1-或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -877,17 +910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -922,6 +944,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -929,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,19 +992,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,13 +1031,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,20 +1058,32 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,9 +1097,7 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1079,7 +1114,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1659,10 +1696,10 @@
     <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="0"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="buff的_x000a_触发条件" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_条件关系" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1934,20 +1971,21 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="10.625" style="2"/>
-    <col min="25" max="25" width="10.625" style="10"/>
+    <col min="25" max="25" width="10.625" style="9"/>
     <col min="26" max="27" width="10.625" style="2"/>
     <col min="28" max="28" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.625" style="2" customWidth="1"/>
     <col min="32" max="33" width="10.625" style="2"/>
     <col min="34" max="34" width="15" style="2" bestFit="1" customWidth="1"/>
@@ -1963,61 +2001,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>7</v>
@@ -2029,22 +2067,22 @@
         <v>9</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>14</v>
+        <v>132</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="114" x14ac:dyDescent="0.2">
@@ -2052,339 +2090,352 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="19" t="s">
-        <v>68</v>
+      <c r="D2" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y2" s="2"/>
-      <c r="AA2" s="37" t="s">
-        <v>144</v>
+      <c r="AA2" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>137</v>
+      <c r="P3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>20</v>
+        <v>154</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="18" t="s">
+      <c r="O4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="14"/>
+      <c r="T4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="14"/>
+      <c r="AD5" s="13"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="18" t="s">
+      <c r="N6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="14"/>
+      <c r="U6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD6" s="40" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>10001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>113</v>
+        <v>76</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="J7" s="3">
         <v>60</v>
@@ -2433,7 +2484,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD7" s="4"/>
     </row>
@@ -2442,16 +2493,16 @@
         <v>10002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="25"/>
       <c r="J8" s="3">
         <v>60</v>
       </c>
@@ -2499,7 +2550,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AD8" s="4"/>
     </row>
@@ -2508,16 +2559,16 @@
         <v>10003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="J9" s="3">
         <v>60</v>
       </c>
@@ -2565,7 +2616,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="4"/>
     </row>
@@ -2574,17 +2625,17 @@
         <v>20001</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>108</v>
+        <v>79</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J10" s="3">
         <v>60</v>
@@ -2633,7 +2684,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD10" s="4"/>
     </row>
@@ -2642,17 +2693,17 @@
         <v>20002</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
@@ -2701,7 +2752,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="4"/>
     </row>
@@ -2710,17 +2761,17 @@
         <v>20003</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J12" s="3">
         <v>60</v>
@@ -2769,7 +2820,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD12" s="4"/>
     </row>
@@ -2778,16 +2829,16 @@
         <v>11001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="27"/>
+      <c r="G13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="25"/>
       <c r="J13" s="3">
         <v>60</v>
       </c>
@@ -2835,7 +2886,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD13" s="4"/>
     </row>
@@ -2844,16 +2895,16 @@
         <v>11002</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="27"/>
+      <c r="G14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="25"/>
       <c r="J14" s="3">
         <v>60</v>
       </c>
@@ -2901,7 +2952,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AD14" s="4"/>
     </row>
@@ -2910,16 +2961,16 @@
         <v>11003</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="3">
         <v>60</v>
       </c>
@@ -2967,7 +3018,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD15" s="4"/>
     </row>
@@ -2976,16 +3027,16 @@
         <v>21001</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="27"/>
+      <c r="G16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="25"/>
       <c r="J16" s="3">
         <v>60</v>
       </c>
@@ -3033,96 +3084,96 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>21002</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="9">
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="8">
         <v>60</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>104</v>
       </c>
-      <c r="M17" s="10">
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
         <v>2</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9">
         <v>3</v>
       </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0</v>
-      </c>
-      <c r="U17" s="10">
-        <v>0</v>
-      </c>
-      <c r="V17" s="10">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10">
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
         <v>0</v>
       </c>
       <c r="AA17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
+      <c r="AB17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>21003</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="27"/>
+      <c r="G18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="25"/>
       <c r="J18" s="3">
         <v>60</v>
       </c>
@@ -3170,7 +3221,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AD18" s="4"/>
     </row>
@@ -3179,16 +3230,16 @@
         <v>30001</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="27"/>
+      <c r="G19" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="25"/>
       <c r="J19" s="3">
         <v>60</v>
       </c>
@@ -3236,7 +3287,7 @@
         <v>0,0,0,0,0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AD19" s="4"/>
     </row>
@@ -3245,17 +3296,17 @@
         <v>101001</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>108</v>
+      <c r="G20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J20" s="3">
         <v>60</v>
@@ -3312,90 +3363,90 @@
       <c r="C21" s="3">
         <v>101002</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>108</v>
+      <c r="D21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J21" s="3">
         <v>60</v>
       </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
         <v>202</v>
       </c>
-      <c r="M21" s="10">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10">
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
+      <c r="M21" s="9">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
         <v>102</v>
       </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
         <v>3</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <v>500</v>
       </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10">
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
         <v>0</v>
       </c>
       <c r="AA21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,500,0,0,0</v>
       </c>
-      <c r="AB21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="10"/>
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>101003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>108</v>
+      <c r="G22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J22" s="3">
         <v>60</v>
@@ -3453,17 +3504,17 @@
         <v>101004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>108</v>
+      <c r="G23" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="J23" s="3">
         <v>60</v>
@@ -3521,16 +3572,16 @@
         <v>104001</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="27"/>
+      <c r="G24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="25"/>
       <c r="J24" s="3">
         <v>60</v>
       </c>
@@ -3590,14 +3641,14 @@
         <v>104002</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="25" t="s">
-        <v>112</v>
+      <c r="G25" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
@@ -3659,14 +3710,14 @@
         <v>104003</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="25" t="s">
-        <v>112</v>
+      <c r="G26" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
@@ -3728,14 +3779,14 @@
         <v>104004</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="25" t="s">
-        <v>112</v>
+      <c r="G27" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
@@ -3797,14 +3848,14 @@
         <v>106001</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="25" t="s">
-        <v>112</v>
+      <c r="G28" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
@@ -3922,33 +3973,33 @@
       <c r="AD34" s="4"/>
     </row>
     <row r="35" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6D2F7-C076-4391-BD06-5F1CBC65814E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528568A2-397F-441D-A515-24B323DA4666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="189">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
   </si>
   <si>
     <t>触发表演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actplay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提升10%攻击</t>
   </si>
   <si>
@@ -475,13 +467,6 @@
   </si>
   <si>
     <t>降低10%+200攻击</t>
-  </si>
-  <si>
-    <t>提升50%攻击,50%防御</t>
-  </si>
-  <si>
-    <t>armorPercent:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
@@ -517,11 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发表演
-(作废)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buffEffectCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HOT</t>
   </si>
   <si>
@@ -545,18 +521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可抵消施法者攻击150%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者防御300%+500点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消施法者生命上限10%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据施法者防御300%+500回复生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,14 +530,6 @@
   </si>
   <si>
     <t>根据目标生命上限30%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消目标生命上限30%+200点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰光环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,15 +547,6 @@
   <si>
     <t>每X秒
 触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-护盾
-201-眩晕
-401-HOT
-501-DOT
-601-属性光环
-602-吸血光环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -723,6 +670,164 @@
     <t>触发器条件关系
 0-且
 1-或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者生命上限15%抵消受到的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_shield_start_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-石柱每3秒产生1次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_summon_shizhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时存在数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场上不同单位同时存在该buff的最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在限制
+不同单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以buff挂载者为中心，buff的效果范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用对象
+技能范围内</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>作用对象</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>1-buff挂载者
+2-友军(除buff挂载者)
+3-所有友军
+4-敌军(除buff挂载者)
+5-所有敌军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据施法者攻击每3秒产生1次瓦尔基里攻击100%+100的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒回复其生命上限3%生命，持续50秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_reborn_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-护盾
+501-Hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表演插槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效插槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+  </si>
+  <si>
+    <t>Fx_act_effect_huifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-烈焰光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-破甲buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标防御降低50%，持续60秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_pojia_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_pojia_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorPercent:-0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,9 +1148,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,9 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,12 +1184,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1098,6 +1203,82 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1669,35 +1850,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="C1:AD35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="25"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="22"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="19"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演_x000a_(作废)" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="11"/>
-    <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="10"/>
-    <tableColumn id="44" xr3:uid="{5109FD34-F9DF-4251-BB1D-18FE0F212000}" name="Iint类型参数" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AH34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="C1:AH34" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="29"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{888EDC62-C1D3-4E19-9362-1CBDAB8EC07F}" name="同时存在数量" dataDxfId="19"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{B8F64F1E-CB30-4033-A0EA-FEE78593B691}" name="表演插槽" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{5109FD34-F9DF-4251-BB1D-18FE0F212000}" name="Iint类型参数" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{3E189FA1-10E9-452D-A72D-28040F461707}" name="buff半径" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{D58D9C58-BAEB-40BC-AEEC-315E98B2CF74}" name="作用对象_x000a_技能范围内" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="buff的_x000a_触发条件" dataDxfId="1"/>
     <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_条件关系" dataDxfId="0"/>
   </tableColumns>
@@ -1968,32 +2153,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="24" width="10.625" style="2"/>
-    <col min="25" max="25" width="10.625" style="9"/>
-    <col min="26" max="27" width="10.625" style="2"/>
-    <col min="28" max="28" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.625" style="2" customWidth="1"/>
-    <col min="32" max="33" width="10.625" style="2"/>
-    <col min="34" max="34" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.625" style="2"/>
+    <col min="1" max="14" width="10.625" style="2"/>
+    <col min="15" max="15" width="12.625" style="2" customWidth="1"/>
+    <col min="16" max="26" width="10.625" style="2"/>
+    <col min="27" max="27" width="10.625" style="9"/>
+    <col min="28" max="29" width="10.625" style="2"/>
+    <col min="30" max="30" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.625" style="2" customWidth="1"/>
+    <col min="36" max="37" width="10.625" style="2"/>
+    <col min="38" max="38" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2010,149 +2198,171 @@
         <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="V1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>159</v>
+      <c r="AC1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="O2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AC2" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="AA2" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AE2" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="AF2" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH2" s="39" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2166,23 +2376,23 @@
         <v>27</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>35</v>
@@ -2190,44 +2400,56 @@
       <c r="N3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="16" t="s">
+      <c r="O3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="V3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>133</v>
-      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="13" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2241,78 +2463,88 @@
         <v>28</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="W4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>160</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2328,11 +2560,11 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -2340,12 +2572,16 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="35"/>
       <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2359,23 +2595,23 @@
         <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>12</v>
@@ -2383,59 +2619,71 @@
       <c r="N6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD6" s="40" t="s">
-        <v>158</v>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>10001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J7" s="3">
         <v>60</v>
@@ -2444,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -2452,14 +2700,8 @@
       <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2479,28 +2721,34 @@
       <c r="Z7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7" s="2" t="str">
-        <f>V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="str">
+        <f>X7&amp;","&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7&amp;","&amp;AB7</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" s="4"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>10002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="3">
@@ -2510,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -2518,14 +2766,8 @@
       <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2545,28 +2787,34 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="2" t="str">
-        <f t="shared" ref="AA8:AA28" si="0">V8&amp;","&amp;W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8</f>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="str">
+        <f t="shared" ref="AC8:AC27" si="0">X8&amp;","&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="4"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>10003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="3">
@@ -2576,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -2584,14 +2832,8 @@
       <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2611,31 +2853,37 @@
       <c r="Z9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9" s="2" t="str">
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH9" s="4"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>20001</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>60</v>
@@ -2644,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -2652,14 +2900,8 @@
       <c r="N10" s="2">
         <v>3</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2679,31 +2921,37 @@
       <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10" s="2" t="str">
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" s="4"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>20002</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
@@ -2712,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -2720,14 +2968,8 @@
       <c r="N11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
       <c r="T11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2747,31 +2989,37 @@
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AA11" s="2" t="str">
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" s="4"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>20003</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>60</v>
@@ -2780,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -2788,14 +3036,8 @@
       <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2815,28 +3057,34 @@
       <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AA12" s="2" t="str">
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12" s="4"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>11001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="3">
@@ -2846,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -2854,15 +3102,9 @@
       <c r="N13" s="2">
         <v>3</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>3</v>
       </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
@@ -2881,28 +3123,34 @@
       <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="AA13" s="2" t="str">
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH13" s="4"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>11002</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="3">
@@ -2912,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -2920,15 +3168,9 @@
       <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>3</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
@@ -2947,28 +3189,34 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="AA14" s="2" t="str">
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH14" s="4"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>11003</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="3">
@@ -2978,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
@@ -2986,15 +3234,9 @@
       <c r="N15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>3</v>
       </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
@@ -3013,28 +3255,34 @@
       <c r="Z15" s="2">
         <v>0</v>
       </c>
-      <c r="AA15" s="2" t="str">
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH15" s="4"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>21001</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="3">
@@ -3044,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -3052,15 +3300,9 @@
       <c r="N16" s="2">
         <v>3</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>3</v>
       </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
@@ -3079,28 +3321,34 @@
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AA16" s="2" t="str">
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>21002</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="26"/>
@@ -3110,8 +3358,8 @@
       <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="9">
-        <v>104</v>
+      <c r="L17" s="2">
+        <v>10004</v>
       </c>
       <c r="M17" s="9">
         <v>1</v>
@@ -3122,15 +3370,11 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="9">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9">
         <v>3</v>
       </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
       <c r="U17" s="9">
         <v>0</v>
       </c>
@@ -3149,29 +3393,37 @@
       <c r="Z17" s="9">
         <v>0</v>
       </c>
-      <c r="AA17" s="2" t="str">
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="10"/>
+      <c r="AD17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="10"/>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>21003</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="3">
@@ -3181,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -3189,15 +3441,9 @@
       <c r="N18" s="2">
         <v>1</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>3</v>
       </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
@@ -3216,56 +3462,56 @@
       <c r="Z18" s="2">
         <v>0</v>
       </c>
-      <c r="AA18" s="2" t="str">
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH18" s="4"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C19" s="3">
-        <v>30001</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>93</v>
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C19" s="11">
+        <v>100201</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="23" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>111</v>
+        <v>10101</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>3</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -3274,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y19" s="2">
         <v>0</v>
@@ -3282,180 +3528,209 @@
       <c r="Z19" s="2">
         <v>0</v>
       </c>
-      <c r="AA19" s="2" t="str">
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="4"/>
+        <v>0.15,0,0,0,0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C20" s="3">
-        <v>101001</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>114</v>
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C20" s="11">
+        <v>100302</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>104</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>201</v>
+        <v>60101</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
       </c>
+      <c r="O20" s="2">
+        <v>3</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="T20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="V20" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="W20" s="2">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="X20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="2">
         <v>0</v>
       </c>
-      <c r="AA20" s="2" t="str">
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.5,200,0,0,0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="4"/>
+        <v>1,100,0,0,0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="4"/>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="3">
-        <v>101002</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C21" s="11">
+        <v>100402</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>104</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <v>60</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="9">
-        <v>202</v>
-      </c>
-      <c r="M21" s="9">
-        <v>1</v>
-      </c>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9">
-        <v>1</v>
-      </c>
-      <c r="S21" s="9">
-        <v>102</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-      <c r="V21" s="9">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>50101</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>501</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
         <v>3</v>
       </c>
-      <c r="W21" s="9">
-        <v>500</v>
-      </c>
-      <c r="X21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2" t="str">
+      <c r="X21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3,500,0,0,0</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="10"/>
+        <v>0.03,0,0,0,0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C22" s="3">
-        <v>101003</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>120</v>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C22" s="11">
+        <v>200302</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="25" t="s">
         <v>104</v>
       </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>203</v>
+        <v>40101</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
@@ -3464,22 +3739,19 @@
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="T22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="V22" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>200</v>
+        <v>2003021</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -3490,31 +3762,37 @@
       <c r="Z22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.1,200,0,0,0</v>
+      <c r="AA22" s="2">
+        <v>0</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="4"/>
+      <c r="AC22" s="2" t="str">
+        <f t="shared" ref="AC22" si="1">X22&amp;","&amp;Y22&amp;","&amp;Z22&amp;","&amp;AA22&amp;","&amp;AB22</f>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C23" s="3">
-        <v>101004</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>114</v>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C23" s="11">
+        <v>200502</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>104</v>
+        <v>186</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="J23" s="3">
         <v>60</v>
@@ -3523,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>204</v>
+        <v>10004</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
@@ -3531,23 +3809,17 @@
       <c r="N23" s="2">
         <v>1</v>
       </c>
-      <c r="R23" s="2">
-        <v>1</v>
-      </c>
-      <c r="S23" s="2">
-        <v>104</v>
-      </c>
       <c r="T23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -3558,28 +3830,39 @@
       <c r="Z23" s="2">
         <v>0</v>
       </c>
-      <c r="AA23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.3,200,0,0,0</v>
+      <c r="AA23" s="2">
+        <v>0</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="4"/>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="4"/>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>104001</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="3">
@@ -3589,35 +3872,29 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
+        <v>50101</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
         <v>401</v>
       </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-      <c r="S24" s="2">
-        <v>401</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>1010</v>
       </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
       <c r="X24" s="2">
         <v>0</v>
       </c>
@@ -3627,28 +3904,34 @@
       <c r="Z24" s="2">
         <v>0</v>
       </c>
-      <c r="AA24" s="2" t="str">
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4"/>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>104002</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
@@ -3658,35 +3941,29 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
+        <v>50102</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2">
+        <v>3</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
         <v>401</v>
       </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="P25" s="2">
-        <v>3</v>
-      </c>
-      <c r="R25" s="2">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2">
-        <v>401</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
         <v>1013</v>
       </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
       <c r="X25" s="2">
         <v>0</v>
       </c>
@@ -3696,28 +3973,34 @@
       <c r="Z25" s="2">
         <v>0</v>
       </c>
-      <c r="AA25" s="2" t="str">
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="4"/>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4"/>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>104003</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
@@ -3727,35 +4010,29 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
+        <v>50103</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>3</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
         <v>401</v>
       </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="P26" s="2">
-        <v>3</v>
-      </c>
-      <c r="R26" s="2">
-        <v>1</v>
-      </c>
-      <c r="S26" s="2">
-        <v>401</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
         <v>1011</v>
       </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
       <c r="X26" s="2">
         <v>0</v>
       </c>
@@ -3765,28 +4042,34 @@
       <c r="Z26" s="2">
         <v>0</v>
       </c>
-      <c r="AA26" s="2" t="str">
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="4"/>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4"/>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>104004</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
@@ -3796,35 +4079,29 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
+        <v>50104</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>3</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
         <v>401</v>
       </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="P27" s="2">
-        <v>3</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
-        <v>401</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
         <v>1012</v>
       </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
       <c r="X27" s="2">
         <v>0</v>
       </c>
@@ -3834,172 +4111,113 @@
       <c r="Z27" s="2">
         <v>0</v>
       </c>
-      <c r="AA27" s="2" t="str">
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="4"/>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C28" s="3">
-        <v>106001</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>126</v>
-      </c>
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>60</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>401</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="P28" s="2">
-        <v>3</v>
-      </c>
-      <c r="R28" s="2">
-        <v>1</v>
-      </c>
-      <c r="S28" s="2">
-        <v>401</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
-        <v>1005</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="AA28" s="2"/>
+      <c r="AH28" s="4"/>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="Y29" s="2"/>
-      <c r="AD29" s="4"/>
+      <c r="AA29" s="2"/>
+      <c r="AH29" s="4"/>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="Y30" s="2"/>
-      <c r="AD30" s="4"/>
+      <c r="AA30" s="2"/>
+      <c r="AH30" s="4"/>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="Y31" s="2"/>
-      <c r="AD31" s="4"/>
+      <c r="AA31" s="2"/>
+      <c r="AH31" s="4"/>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="Y32" s="2"/>
-      <c r="AD32" s="4"/>
+      <c r="AA32" s="2"/>
+      <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="Y33" s="2"/>
-      <c r="AD33" s="4"/>
+      <c r="AA33" s="2"/>
+      <c r="AH33" s="4"/>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="Y34" s="2"/>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="10"/>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528568A2-397F-441D-A515-24B323DA4666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25FA24-1577-4815-BBB9-F5A5605F2F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据施法者攻击每3秒产生1次瓦尔基里攻击100%+100的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,17 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_daoguang_hit</t>
-  </si>
-  <si>
-    <t>Fx_act_effect_huifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男主-烈焰光环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,6 +813,36 @@
   </si>
   <si>
     <t>armorPercent:-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-自身COM速度提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_jiasu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atbSpeedPercent:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Spine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff挂载
+在模型上的位置
+默认在脚底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,13 +880,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,11 +1069,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1106,12 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,10 +1126,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1145,43 +1147,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1850,8 +1852,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AH34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="C1:AH34" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AH35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="C1:AH35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="31"/>
     <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="30"/>
@@ -2153,14 +2155,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2203,7 +2205,7 @@
       <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2212,31 +2214,31 @@
       <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>106</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -2266,19 +2268,19 @@
       <c r="AB1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="30" t="s">
         <v>127</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AE1" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="34" t="s">
         <v>140</v>
       </c>
       <c r="AH1" s="7" t="s">
@@ -2290,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="3"/>
@@ -2298,11 +2300,13 @@
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2320,21 +2324,21 @@
       <c r="O2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="41" t="s">
-        <v>174</v>
+      <c r="U2" s="39" t="s">
+        <v>173</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>132</v>
@@ -2343,7 +2347,7 @@
         <v>133</v>
       </c>
       <c r="AA2" s="2"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="31" t="s">
         <v>128</v>
       </c>
       <c r="AD2" s="2" t="s">
@@ -2352,13 +2356,13 @@
       <c r="AE2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="39" t="s">
         <v>168</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AH2" s="37" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2381,7 +2385,9 @@
       <c r="G3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="28" t="s">
+        <v>188</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>116</v>
       </c>
@@ -2403,16 +2409,16 @@
       <c r="O3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="30" t="s">
+      <c r="P3" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="Q3" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="T3" s="12"/>
@@ -2468,7 +2474,7 @@
       <c r="G4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2477,10 +2483,10 @@
       <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>49</v>
       </c>
       <c r="M4" s="12" t="s">
@@ -2489,19 +2495,19 @@
       <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="30" t="s">
+      <c r="Q4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="12"/>
@@ -2529,7 +2535,7 @@
       <c r="AB4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AC4" s="34"/>
+      <c r="AC4" s="32"/>
       <c r="AD4" s="13" t="s">
         <v>120</v>
       </c>
@@ -2540,7 +2546,7 @@
       <c r="AG4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AH4" s="37" t="s">
+      <c r="AH4" s="35" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2553,7 +2559,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="12"/>
@@ -2561,10 +2567,10 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="16"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -2574,7 +2580,7 @@
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
-      <c r="AC5" s="35"/>
+      <c r="AC5" s="33"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -2600,7 +2606,9 @@
       <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="I6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2622,16 +2630,16 @@
       <c r="O6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="31" t="s">
+      <c r="Q6" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="12"/>
@@ -2664,7 +2672,7 @@
       <c r="AG6" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AH6" s="38" t="s">
+      <c r="AH6" s="36" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2675,14 +2683,14 @@
       <c r="D7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>105</v>
       </c>
       <c r="J7" s="3">
@@ -2743,14 +2751,14 @@
       <c r="D8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="3">
         <v>60</v>
       </c>
@@ -2794,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2" t="str">
-        <f t="shared" ref="AC8:AC27" si="0">X8&amp;","&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8</f>
+        <f t="shared" ref="AC8:AC28" si="0">X8&amp;","&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8</f>
         <v>0,0,0,0,0</v>
       </c>
       <c r="AD8" s="2" t="s">
@@ -2809,14 +2817,14 @@
       <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="3">
         <v>60</v>
       </c>
@@ -2875,14 +2883,14 @@
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J10" s="3">
@@ -2943,14 +2951,14 @@
       <c r="D11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J11" s="3">
@@ -3011,14 +3019,14 @@
       <c r="D12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J12" s="3">
@@ -3079,14 +3087,14 @@
       <c r="D13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="3">
         <v>60</v>
       </c>
@@ -3145,14 +3153,14 @@
       <c r="D14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="3">
         <v>60</v>
       </c>
@@ -3211,14 +3219,14 @@
       <c r="D15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>97</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="3">
         <v>60</v>
       </c>
@@ -3281,10 +3289,10 @@
         <v>85</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="3">
         <v>60</v>
       </c>
@@ -3347,11 +3355,11 @@
         <v>87</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="8">
         <v>60</v>
       </c>
@@ -3422,10 +3430,10 @@
         <v>103</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="3">
         <v>60</v>
       </c>
@@ -3481,17 +3489,17 @@
       <c r="C19" s="11">
         <v>100201</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>150</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="3">
         <v>40</v>
       </c>
@@ -3547,14 +3555,14 @@
       <c r="C20" s="11">
         <v>100302</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>170</v>
+      <c r="E20" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>154</v>
       </c>
       <c r="I20" s="3"/>
@@ -3576,12 +3584,7 @@
       <c r="O20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="P20" s="21"/>
       <c r="R20" s="2">
         <v>3</v>
       </c>
@@ -3589,19 +3592,19 @@
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
       </c>
-      <c r="W20" s="2" t="s">
-        <v>169</v>
+      <c r="W20" s="2">
+        <v>1003021</v>
       </c>
       <c r="X20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="2">
         <v>0</v>
@@ -3614,16 +3617,16 @@
       </c>
       <c r="AC20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,100,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
       </c>
       <c r="AE20" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="4"/>
     </row>
@@ -3631,15 +3634,15 @@
       <c r="C21" s="11">
         <v>100402</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="23" t="s">
-        <v>173</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
@@ -3657,12 +3660,7 @@
       <c r="N21" s="2">
         <v>1</v>
       </c>
-      <c r="P21" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="P21" s="21"/>
       <c r="R21" s="2">
         <v>5</v>
       </c>
@@ -3670,16 +3668,16 @@
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>3</v>
+        <v>1004021</v>
       </c>
       <c r="X21" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="2">
         <v>0</v>
@@ -3695,16 +3693,16 @@
       </c>
       <c r="AC21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.03,0,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="4"/>
     </row>
@@ -3712,17 +3710,19 @@
       <c r="C22" s="11">
         <v>200302</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>115</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="J22" s="3">
         <v>18</v>
       </c>
@@ -3769,10 +3769,16 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2" t="str">
-        <f t="shared" ref="AC22" si="1">X22&amp;","&amp;Y22&amp;","&amp;Z22&amp;","&amp;AA22&amp;","&amp;AB22</f>
+        <f t="shared" ref="AC22:AC24" si="1">X22&amp;","&amp;Y22&amp;","&amp;Z22&amp;","&amp;AA22&amp;","&amp;AB22</f>
         <v>0,0,0,0,0</v>
       </c>
       <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
         <v>0</v>
       </c>
       <c r="AH22" s="4"/>
@@ -3781,18 +3787,21 @@
       <c r="C23" s="11">
         <v>200502</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>185</v>
+      <c r="D23" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>187</v>
+      <c r="G23" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="J23" s="3">
         <v>60</v>
@@ -3836,11 +3845,12 @@
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AC23" s="2">
-        <v>0</v>
+      <c r="AC23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AE23" s="2">
         <v>0.5</v>
@@ -3851,28 +3861,26 @@
       <c r="AH23" s="4"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C24" s="3">
-        <v>104001</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>111</v>
-      </c>
+      <c r="C24" s="11">
+        <v>800502</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="25"/>
+      <c r="G24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>50101</v>
+        <v>11001</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
@@ -3880,20 +3888,17 @@
       <c r="N24" s="2">
         <v>1</v>
       </c>
-      <c r="R24" s="2">
-        <v>3</v>
-      </c>
       <c r="T24" s="2">
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3911,29 +3916,29 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD24" s="2">
-        <v>0</v>
+      <c r="AD24" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="AH24" s="4"/>
     </row>
     <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
-        <v>104002</v>
+        <v>104001</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="3">
         <v>60</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -3962,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -3990,16 +3995,16 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
-        <v>104003</v>
+        <v>104002</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>113</v>
+      <c r="E26" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="3"/>
@@ -4010,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
@@ -4031,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4059,16 +4064,16 @@
     </row>
     <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
-        <v>104004</v>
+        <v>104003</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>114</v>
+      <c r="E27" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="3"/>
@@ -4079,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
@@ -4100,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4127,13 +4132,72 @@
       <c r="AH27" s="4"/>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="3">
+        <v>104004</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="F28" s="3"/>
+      <c r="G28" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="AA28" s="2"/>
+      <c r="J28" s="3">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>50104</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
+        <v>3</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>401</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1012</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
       <c r="AH28" s="4"/>
     </row>
     <row r="29" spans="3:34" x14ac:dyDescent="0.2">
@@ -4187,37 +4251,47 @@
       <c r="AH33" s="4"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="10"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="AA34" s="2"/>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25FA24-1577-4815-BBB9-F5A5605F2F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FD53C-9034-4F09-BE8D-4D6CE042EBB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{14DF55E3-65FA-4A32-A2E5-8773AFADC35E}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,29 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>HOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者攻击150%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者防御300%+500回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据施法者生命上限10%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据目标生命上限30%+200回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据常规伤害200%+200造成伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,14 +655,6 @@
   </si>
   <si>
     <t>Fx_buff_shield_start_loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-石柱每3秒产生1次伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -755,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓦尔基里-再生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每5秒回复其生命上限3%生命，持续50秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,14 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男主-烈焰光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-破甲buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使目标防御降低50%，持续60秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,10 +770,6 @@
   </si>
   <si>
     <t>armorPercent:-0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-自身COM速度提升20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,6 +796,190 @@
     <t>buff挂载
 在模型上的位置
 默认在脚底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-自身COM速度提升20%</t>
+  </si>
+  <si>
+    <t>COM条行动速度提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-护盾</t>
+  </si>
+  <si>
+    <t>瓦尔基里-石柱每3秒产生1次伤害</t>
+  </si>
+  <si>
+    <t>瓦尔基里-再生</t>
+  </si>
+  <si>
+    <t>男主-烈焰光环</t>
+  </si>
+  <si>
+    <t>男主-破甲buff</t>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被嘲讽的目标在嘲讽持续时间内，仅能使用普通攻击，攻击嘲讽者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间内，火抗提升50%，受到伤害降低30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_chaofeng_start_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_chaofeng_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumptext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff飘字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff飘字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Debuff_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Debuff_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_kaijia_start_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_kaijia_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resFire:0.5,selfDmgDec:0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续期间每次受到【烈焰光环】的攻击都会使目标附加其生命上限2%的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_biaoji_start_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_biaoji_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Num_Buff_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio01 HeadNub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterB</t>
+  </si>
+  <si>
+    <t>parameterC</t>
+  </si>
+  <si>
+    <t>parameterD</t>
+  </si>
+  <si>
+    <t>parameterA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减益类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDebuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-增益
+1-减益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +1083,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1073,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1192,12 +1335,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1205,6 +1354,25 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1711,6 +1879,40 @@
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1852,26 +2054,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AH35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="C1:AH35" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="30"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="29"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="27"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="26"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="25"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="24"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="22"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{888EDC62-C1D3-4E19-9362-1CBDAB8EC07F}" name="同时存在数量" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{B8F64F1E-CB30-4033-A0EA-FEE78593B691}" name="表演插槽" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AK31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="C1:AK31" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{0D147E42-E14C-4A96-8C02-8037616E1D7D}" name="备注" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="31"/>
+    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{2BBF407B-57D8-42A6-91F3-32A4E8232393}" name="Buff飘字" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{888EDC62-C1D3-4E19-9362-1CBDAB8EC07F}" name="同时存在数量" dataDxfId="20"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{B8F64F1E-CB30-4033-A0EA-FEE78593B691}" name="表演插槽" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{94250C4F-3953-452A-9AA3-4965863D4953}" name="增减益类型" dataDxfId="15"/>
     <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="13"/>
     <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="12"/>
@@ -2155,35 +2360,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.625" style="2"/>
-    <col min="15" max="15" width="12.625" style="2" customWidth="1"/>
-    <col min="16" max="26" width="10.625" style="2"/>
-    <col min="27" max="27" width="10.625" style="9"/>
-    <col min="28" max="29" width="10.625" style="2"/>
-    <col min="30" max="30" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="10.625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.625" style="2" customWidth="1"/>
-    <col min="36" max="37" width="10.625" style="2"/>
-    <col min="38" max="38" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.625" style="2"/>
+    <col min="1" max="16" width="10.625" style="2"/>
+    <col min="17" max="17" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="29" width="10.625" style="2"/>
+    <col min="30" max="30" width="10.625" style="9"/>
+    <col min="31" max="32" width="10.625" style="2"/>
+    <col min="33" max="33" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="14.125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="10.625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="2" customWidth="1"/>
+    <col min="39" max="40" width="10.625" style="2"/>
+    <col min="41" max="41" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2194,363 +2399,400 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>147</v>
+      <c r="AF1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI1" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AC2" s="31" t="s">
-        <v>128</v>
+      <c r="X2" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF2" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>149</v>
+      <c r="AH2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
       <c r="AF3" s="13" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="28"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH4" s="35" t="s">
-        <v>148</v>
+      <c r="AK4" s="35" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2558,167 +2800,173 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="28"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="28"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="33"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" s="29" t="s">
+      <c r="Q6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" s="29" t="s">
+      <c r="S6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AC6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AE6" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH6" s="36" t="s">
-        <v>146</v>
+      <c r="AH6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>10001</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>60</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
         <v>10001</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2735,56 +2983,61 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AC7" s="2" t="str">
-        <f>X7&amp;","&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7&amp;","&amp;AB7</f>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="str">
+        <f>AA7&amp;","&amp;AB7&amp;","&amp;AC7&amp;","&amp;AD7&amp;","&amp;AE7</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AH7" s="4"/>
+      <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>10002</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="3">
+      <c r="K8" s="23"/>
+      <c r="L8" s="3">
         <v>60</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>10001</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>2</v>
       </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -2801,56 +3054,61 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="2" t="str">
-        <f t="shared" ref="AC8:AC28" si="0">X8&amp;","&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8</f>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="str">
+        <f t="shared" ref="AF8:AF21" si="0">AA8&amp;","&amp;AB8&amp;","&amp;AC8&amp;","&amp;AD8&amp;","&amp;AE8</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AH8" s="4"/>
+      <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>10003</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="3">
+      <c r="K9" s="23"/>
+      <c r="L9" s="3">
         <v>60</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>10001</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2867,58 +3125,63 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="2" t="str">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AH9" s="4"/>
+      <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>20001</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
         <v>10002</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2935,58 +3198,63 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="2" t="str">
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4"/>
+      <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>20002</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3">
         <v>60</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>10002</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
         <v>2</v>
       </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -3003,58 +3271,63 @@
       <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="2" t="str">
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AH11" s="4"/>
+      <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>20003</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>60</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>10002</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -3071,57 +3344,62 @@
       <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AC12" s="2" t="str">
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AH12" s="4"/>
+      <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>11001</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="3">
+      <c r="K13" s="23"/>
+      <c r="L13" s="3">
         <v>60</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>10003</v>
-      </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2">
+        <v>11001</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
         <v>3</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>3</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
@@ -3137,57 +3415,62 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="2" t="str">
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AH13" s="4"/>
+      <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>11002</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="3">
+      <c r="K14" s="23"/>
+      <c r="L14" s="3">
         <v>60</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="L14" s="2">
-        <v>10003</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
       <c r="N14" s="2">
+        <v>11001</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
         <v>2</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
         <v>3</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
@@ -3203,57 +3486,62 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="2" t="str">
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AH14" s="4"/>
+      <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>11003</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="3">
+      <c r="K15" s="23"/>
+      <c r="L15" s="3">
         <v>60</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="2">
-        <v>10003</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
       <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
+        <v>11001</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
         <v>3</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
       <c r="X15" s="2">
         <v>0</v>
       </c>
@@ -3269,57 +3557,62 @@
       <c r="AB15" s="2">
         <v>0</v>
       </c>
-      <c r="AC15" s="2" t="str">
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AH15" s="4"/>
+      <c r="AK15" s="4"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>21001</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="3">
+      <c r="K16" s="23"/>
+      <c r="L16" s="3">
         <v>60</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>10004</v>
-      </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16" s="2">
+        <v>11002</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
         <v>3</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>3</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
       <c r="X16" s="2">
         <v>0</v>
       </c>
@@ -3335,63 +3628,68 @@
       <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="2" t="str">
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="4"/>
+      <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>21002</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="8">
+      <c r="J17" s="9"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="8">
         <v>60</v>
       </c>
-      <c r="K17" s="9">
+      <c r="M17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="2">
-        <v>10004</v>
-      </c>
-      <c r="M17" s="9">
-        <v>1</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="N17" s="2">
+        <v>11002</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
         <v>2</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9">
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9">
+        <v>1</v>
+      </c>
+      <c r="W17" s="9">
         <v>3</v>
       </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
       <c r="X17" s="9">
         <v>0</v>
       </c>
@@ -3407,60 +3705,65 @@
       <c r="AB17" s="9">
         <v>0</v>
       </c>
-      <c r="AC17" s="2" t="str">
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="10"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="10"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>21003</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="3">
+      <c r="K18" s="23"/>
+      <c r="L18" s="3">
         <v>60</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2">
-        <v>10004</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
       <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2">
+        <v>13002</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
         <v>3</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
       <c r="X18" s="2">
         <v>0</v>
       </c>
@@ -3476,360 +3779,403 @@
       <c r="AB18" s="2">
         <v>0</v>
       </c>
-      <c r="AC18" s="2" t="str">
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AH18" s="4"/>
+      <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C19" s="11">
         <v>100201</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="3">
+        <v>184</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="3">
         <v>40</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
         <v>10101</v>
       </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
         <v>103</v>
       </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
         <v>0.15</v>
       </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0</v>
-      </c>
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AC19" s="2" t="str">
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.15,0,0,0,0</v>
       </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="4"/>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C20" s="11">
         <v>100302</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+        <v>185</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>45</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
         <v>60101</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
       <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="R20" s="2">
+      <c r="R20" s="21"/>
+      <c r="T20" s="2">
         <v>3</v>
       </c>
-      <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
         <v>401</v>
       </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
         <v>1003021</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
       <c r="AA20" s="2">
         <v>0</v>
       </c>
       <c r="AB20" s="2">
         <v>0</v>
       </c>
-      <c r="AC20" s="2" t="str">
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="4"/>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C21" s="11">
         <v>100402</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+        <v>186</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
         <v>50</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
         <v>50101</v>
       </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="R21" s="2">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="T21" s="2">
         <v>5</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
         <v>401</v>
       </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <v>1004021</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
       <c r="AA21" s="2">
         <v>0</v>
       </c>
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2" t="str">
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4"/>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4"/>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C22" s="11">
         <v>200302</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>18</v>
       </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
         <v>40101</v>
       </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
         <v>3</v>
       </c>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
         <v>401</v>
       </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
         <v>2003021</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
       <c r="AA22" s="2">
         <v>0</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
       </c>
-      <c r="AC22" s="2" t="str">
-        <f t="shared" ref="AC22:AC24" si="1">X22&amp;","&amp;Y22&amp;","&amp;Z22&amp;","&amp;AA22&amp;","&amp;AB22</f>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="str">
+        <f t="shared" ref="AF22:AF27" si="1">AA22&amp;","&amp;AB22&amp;","&amp;AC22&amp;","&amp;AD22&amp;","&amp;AE22</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4"/>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C23" s="11">
         <v>200502</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="3">
+        <v>188</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="3">
         <v>60</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>10004</v>
-      </c>
       <c r="M23" s="2">
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="T23" s="2">
+        <v>11002</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
         <v>3</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
       <c r="X23" s="2">
         <v>0</v>
       </c>
@@ -3845,60 +4191,71 @@
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AC23" s="2" t="str">
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="4"/>
+      <c r="AG23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C24" s="11">
         <v>800502</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+        <v>180</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
         <v>30</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>11001</v>
-      </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2">
-        <v>1</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
+        <v>10005</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3915,383 +4272,350 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2" t="str">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH24" s="4"/>
+      <c r="AG24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
-        <v>104001</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="3">
-        <v>60</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>50101</v>
+        <v>200101</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="3">
+        <v>20</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2">
-        <v>3</v>
-      </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-      <c r="U25" s="2">
+        <v>21101</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>4</v>
+      </c>
+      <c r="X25" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,0,0,0,0</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="4"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>200102</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="3">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>12007</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4"/>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>200201</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="3">
+        <v>70</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>40102</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
         <v>401</v>
       </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>1010</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>2201202</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="4"/>
+      <c r="AH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="4"/>
     </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C26" s="3">
-        <v>104002</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <v>60</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>50102</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2">
-        <v>3</v>
-      </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2">
-        <v>401</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1013</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="4"/>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="AD28" s="2"/>
+      <c r="AK28" s="4"/>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C27" s="3">
-        <v>104003</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
-        <v>60</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>50103</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2">
-        <v>3</v>
-      </c>
-      <c r="T27" s="2">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2">
-        <v>401</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1011</v>
-      </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C28" s="3">
-        <v>104004</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>60</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>50104</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2">
-        <v>3</v>
-      </c>
-      <c r="T28" s="2">
-        <v>1</v>
-      </c>
-      <c r="U28" s="2">
-        <v>401</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1012</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="AA29" s="2"/>
-      <c r="AH29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="AD29" s="2"/>
+      <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="AA30" s="2"/>
-      <c r="AH30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="AD30" s="2"/>
+      <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="AA31" s="2"/>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="AA32" s="2"/>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="AA33" s="2"/>
-      <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="AA34" s="2"/>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="10"/>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FD53C-9034-4F09-BE8D-4D6CE042EBB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C8FF6-BE91-4512-A4D9-1D1BC35E57A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="229">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,6 +980,10 @@
   <si>
     <t>0-增益
 1-减益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_start_loop_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,11 +2367,11 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3840,13 +3844,13 @@
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="2">
         <v>0.15</v>
@@ -4061,7 +4065,7 @@
         <v>207</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>105</v>

--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C8FF6-BE91-4512-A4D9-1D1BC35E57A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8DC23-CA45-44A4-A3C5-60D4E2AE5D4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuff" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_buff_guanghuan_start_loop_02</t>
+    <t>Fx_buff_guanghuan_loop_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2367,11 +2367,11 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
